--- a/Simplex_pages.xlsx
+++ b/Simplex_pages.xlsx
@@ -46,7 +46,8 @@
             <charset val="186"/>
           </rPr>
           <t xml:space="preserve">
-mmmmm - mode (return cntrl mode)</t>
+mmmmm - mode (return cntrl mode)
+nnn-power</t>
         </r>
       </text>
     </comment>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="31">
   <si>
     <t>C</t>
   </si>
@@ -152,12 +153,6 @@
     <t>l</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>:</t>
   </si>
   <si>
@@ -207,6 +202,30 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>L/H</t>
+  </si>
+  <si>
+    <t>Nurk</t>
+  </si>
+  <si>
+    <t>Koef</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Hour</t>
   </si>
 </sst>
 </file>
@@ -345,6 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,7 +374,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BU11"/>
+  <dimension ref="A2:DW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="DH12" sqref="DH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,14 +695,41 @@
     <col min="64" max="65" width="2" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="67" max="73" width="3" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="91" width="3" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="2" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="2" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="2" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="2" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="103" max="109" width="3" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="2" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="2" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="2" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="119" width="2" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="127" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:127" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -733,69 +779,69 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:127" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -805,16 +851,16 @@
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -822,30 +868,30 @@
         <v>3</v>
       </c>
       <c r="N5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:127" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="11" t="s">
+      <c r="T8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:127" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -1038,8 +1084,152 @@
       <c r="BU9">
         <v>16</v>
       </c>
+      <c r="BX9">
+        <v>1</v>
+      </c>
+      <c r="BY9">
+        <v>2</v>
+      </c>
+      <c r="BZ9">
+        <v>3</v>
+      </c>
+      <c r="CA9">
+        <v>4</v>
+      </c>
+      <c r="CB9">
+        <v>5</v>
+      </c>
+      <c r="CC9">
+        <v>6</v>
+      </c>
+      <c r="CD9">
+        <v>7</v>
+      </c>
+      <c r="CE9">
+        <v>8</v>
+      </c>
+      <c r="CF9">
+        <v>9</v>
+      </c>
+      <c r="CG9">
+        <v>10</v>
+      </c>
+      <c r="CH9">
+        <v>11</v>
+      </c>
+      <c r="CI9">
+        <v>12</v>
+      </c>
+      <c r="CJ9">
+        <v>13</v>
+      </c>
+      <c r="CK9">
+        <v>14</v>
+      </c>
+      <c r="CL9">
+        <v>15</v>
+      </c>
+      <c r="CM9">
+        <v>16</v>
+      </c>
+      <c r="CP9">
+        <v>1</v>
+      </c>
+      <c r="CQ9">
+        <v>2</v>
+      </c>
+      <c r="CR9">
+        <v>3</v>
+      </c>
+      <c r="CS9">
+        <v>4</v>
+      </c>
+      <c r="CT9">
+        <v>5</v>
+      </c>
+      <c r="CU9">
+        <v>6</v>
+      </c>
+      <c r="CV9">
+        <v>7</v>
+      </c>
+      <c r="CW9">
+        <v>8</v>
+      </c>
+      <c r="CX9">
+        <v>9</v>
+      </c>
+      <c r="CY9">
+        <v>10</v>
+      </c>
+      <c r="CZ9">
+        <v>11</v>
+      </c>
+      <c r="DA9">
+        <v>12</v>
+      </c>
+      <c r="DB9">
+        <v>13</v>
+      </c>
+      <c r="DC9">
+        <v>14</v>
+      </c>
+      <c r="DD9">
+        <v>15</v>
+      </c>
+      <c r="DE9">
+        <v>16</v>
+      </c>
+      <c r="DH9">
+        <v>1</v>
+      </c>
+      <c r="DI9">
+        <v>2</v>
+      </c>
+      <c r="DJ9">
+        <v>3</v>
+      </c>
+      <c r="DK9">
+        <v>4</v>
+      </c>
+      <c r="DL9">
+        <v>5</v>
+      </c>
+      <c r="DM9">
+        <v>6</v>
+      </c>
+      <c r="DN9">
+        <v>7</v>
+      </c>
+      <c r="DO9">
+        <v>8</v>
+      </c>
+      <c r="DP9">
+        <v>9</v>
+      </c>
+      <c r="DQ9">
+        <v>10</v>
+      </c>
+      <c r="DR9">
+        <v>11</v>
+      </c>
+      <c r="DS9">
+        <v>12</v>
+      </c>
+      <c r="DT9">
+        <v>13</v>
+      </c>
+      <c r="DU9">
+        <v>14</v>
+      </c>
+      <c r="DV9">
+        <v>15</v>
+      </c>
+      <c r="DW9">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1047,23 +1237,23 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>1</v>
@@ -1087,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U10" s="7">
         <v>1</v>
@@ -1096,23 +1286,23 @@
         <v>0</v>
       </c>
       <c r="W10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD10" s="2" t="s">
         <v>1</v>
@@ -1136,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM10" s="7">
         <v>1</v>
@@ -1145,23 +1335,23 @@
         <v>0</v>
       </c>
       <c r="AO10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AS10" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS10" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV10" s="2" t="s">
         <v>1</v>
@@ -1185,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="BC10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BE10" s="7">
         <v>1</v>
@@ -1194,23 +1384,23 @@
         <v>0</v>
       </c>
       <c r="BG10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="BH10" s="2" t="s">
+      <c r="BK10" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="BI10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BK10" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="BL10" s="2"/>
       <c r="BM10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BN10" s="2" t="s">
         <v>1</v>
@@ -1234,104 +1424,317 @@
         <v>5</v>
       </c>
       <c r="BU10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BX10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="CA10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="CF10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CH10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CL10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="CO10" s="7">
+        <v>1</v>
+      </c>
+      <c r="CP10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CT10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV10" s="2"/>
+      <c r="CW10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="CX10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CZ10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DA10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="DB10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DD10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DE10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="DG10" s="7">
+        <v>1</v>
+      </c>
+      <c r="DH10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="DJ10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="DK10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DL10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="DM10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="DN10" s="2"/>
+      <c r="DO10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="DP10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DR10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DS10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="DT10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DW10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:127" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="U11" s="7">
+        <v>2</v>
+      </c>
+      <c r="V11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" t="s">
-        <v>18</v>
-      </c>
-      <c r="U11" s="7">
-        <v>2</v>
-      </c>
-      <c r="V11" s="8" t="s">
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="11"/>
+      <c r="AM11" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="10"/>
-      <c r="AM11" s="7">
-        <v>2</v>
-      </c>
-      <c r="AN11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="9"/>
-      <c r="BC11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="11"/>
       <c r="BE11" s="7">
         <v>2</v>
       </c>
-      <c r="BF11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG11" s="9"/>
-      <c r="BH11" s="9"/>
-      <c r="BI11" s="9"/>
-      <c r="BJ11" s="9"/>
-      <c r="BK11" s="9"/>
-      <c r="BL11" s="9"/>
-      <c r="BM11" s="9"/>
-      <c r="BN11" s="9"/>
-      <c r="BO11" s="9"/>
-      <c r="BP11" s="9"/>
-      <c r="BQ11" s="9"/>
-      <c r="BR11" s="9"/>
-      <c r="BS11" s="9"/>
-      <c r="BT11" s="9"/>
-      <c r="BU11" s="10"/>
+      <c r="BF11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG11" s="10"/>
+      <c r="BH11" s="10"/>
+      <c r="BI11" s="10"/>
+      <c r="BJ11" s="10"/>
+      <c r="BK11" s="10"/>
+      <c r="BL11" s="10"/>
+      <c r="BM11" s="10"/>
+      <c r="BN11" s="10"/>
+      <c r="BO11" s="10"/>
+      <c r="BP11" s="10"/>
+      <c r="BQ11" s="10"/>
+      <c r="BR11" s="10"/>
+      <c r="BS11" s="10"/>
+      <c r="BT11" s="10"/>
+      <c r="BU11" s="11"/>
+      <c r="BW11" s="7">
+        <v>2</v>
+      </c>
+      <c r="BX11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="BY11" s="10"/>
+      <c r="BZ11" s="10"/>
+      <c r="CA11" s="10"/>
+      <c r="CB11" s="10"/>
+      <c r="CC11" s="10"/>
+      <c r="CD11" s="10"/>
+      <c r="CE11" s="10"/>
+      <c r="CF11" s="10"/>
+      <c r="CG11" s="10"/>
+      <c r="CH11" s="10"/>
+      <c r="CI11" s="10"/>
+      <c r="CJ11" s="10"/>
+      <c r="CK11" s="10"/>
+      <c r="CL11" s="10"/>
+      <c r="CM11" s="11"/>
+      <c r="CO11" s="7">
+        <v>2</v>
+      </c>
+      <c r="CP11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="CQ11" s="10"/>
+      <c r="CR11" s="10"/>
+      <c r="CS11" s="10"/>
+      <c r="CT11" s="10"/>
+      <c r="CU11" s="10"/>
+      <c r="CV11" s="10"/>
+      <c r="CW11" s="10"/>
+      <c r="CX11" s="10"/>
+      <c r="CY11" s="10"/>
+      <c r="CZ11" s="10"/>
+      <c r="DA11" s="10"/>
+      <c r="DB11" s="10"/>
+      <c r="DC11" s="10"/>
+      <c r="DD11" s="10"/>
+      <c r="DE11" s="11"/>
+      <c r="DG11" s="7">
+        <v>2</v>
+      </c>
+      <c r="DH11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="DI11" s="10"/>
+      <c r="DJ11" s="10"/>
+      <c r="DK11" s="10"/>
+      <c r="DL11" s="10"/>
+      <c r="DM11" s="10"/>
+      <c r="DN11" s="10"/>
+      <c r="DO11" s="10"/>
+      <c r="DP11" s="10"/>
+      <c r="DQ11" s="10"/>
+      <c r="DR11" s="10"/>
+      <c r="DS11" s="10"/>
+      <c r="DT11" s="10"/>
+      <c r="DU11" s="10"/>
+      <c r="DV11" s="10"/>
+      <c r="DW11" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="CP11:DE11"/>
+    <mergeCell ref="DH11:DW11"/>
     <mergeCell ref="BF11:BU11"/>
     <mergeCell ref="B11:Q11"/>
     <mergeCell ref="V11:AK11"/>
     <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="BX11:CM11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Simplex_pages.xlsx
+++ b/Simplex_pages.xlsx
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:DW11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DH12" sqref="DH12"/>
+    <sheetView tabSelected="1" topLeftCell="CG1" workbookViewId="0">
+      <selection activeCell="DG10" sqref="DG10:DG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,57 +731,57 @@
     </row>
     <row r="3" spans="1:127" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
       <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>7</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>8</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>9</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>10</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>11</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>12</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>13</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>14</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>15</v>
-      </c>
-      <c r="Q3">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="5" spans="1:127" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
@@ -893,292 +893,292 @@
     </row>
     <row r="9" spans="1:127" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
       <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>9</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>10</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>11</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>12</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>13</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>14</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>15</v>
       </c>
-      <c r="Q9">
-        <v>16</v>
-      </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
         <v>3</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>4</v>
       </c>
-      <c r="Z9">
-        <v>5</v>
-      </c>
       <c r="AA9">
+        <v>5</v>
+      </c>
+      <c r="AB9">
         <v>6</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>7</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>8</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>9</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>10</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>11</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>12</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>13</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>14</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>15</v>
       </c>
-      <c r="AK9">
-        <v>16</v>
-      </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP9">
+        <v>2</v>
+      </c>
+      <c r="AQ9">
         <v>3</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>4</v>
       </c>
-      <c r="AR9">
-        <v>5</v>
-      </c>
       <c r="AS9">
+        <v>5</v>
+      </c>
+      <c r="AT9">
         <v>6</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <v>7</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>8</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>9</v>
       </c>
-      <c r="AW9">
+      <c r="AX9">
         <v>10</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <v>11</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>12</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>13</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>14</v>
       </c>
-      <c r="BB9">
+      <c r="BC9">
         <v>15</v>
       </c>
-      <c r="BC9">
-        <v>16</v>
-      </c>
       <c r="BF9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH9">
+        <v>2</v>
+      </c>
+      <c r="BI9">
         <v>3</v>
       </c>
-      <c r="BI9">
+      <c r="BJ9">
         <v>4</v>
       </c>
-      <c r="BJ9">
-        <v>5</v>
-      </c>
       <c r="BK9">
+        <v>5</v>
+      </c>
+      <c r="BL9">
         <v>6</v>
       </c>
-      <c r="BL9">
+      <c r="BM9">
         <v>7</v>
       </c>
-      <c r="BM9">
+      <c r="BN9">
         <v>8</v>
       </c>
-      <c r="BN9">
+      <c r="BO9">
         <v>9</v>
       </c>
-      <c r="BO9">
+      <c r="BP9">
         <v>10</v>
       </c>
-      <c r="BP9">
+      <c r="BQ9">
         <v>11</v>
       </c>
-      <c r="BQ9">
+      <c r="BR9">
         <v>12</v>
       </c>
-      <c r="BR9">
+      <c r="BS9">
         <v>13</v>
       </c>
-      <c r="BS9">
+      <c r="BT9">
         <v>14</v>
       </c>
-      <c r="BT9">
+      <c r="BU9">
         <v>15</v>
       </c>
-      <c r="BU9">
-        <v>16</v>
-      </c>
       <c r="BX9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ9">
+        <v>2</v>
+      </c>
+      <c r="CA9">
         <v>3</v>
       </c>
-      <c r="CA9">
+      <c r="CB9">
         <v>4</v>
       </c>
-      <c r="CB9">
-        <v>5</v>
-      </c>
       <c r="CC9">
+        <v>5</v>
+      </c>
+      <c r="CD9">
         <v>6</v>
       </c>
-      <c r="CD9">
+      <c r="CE9">
         <v>7</v>
       </c>
-      <c r="CE9">
+      <c r="CF9">
         <v>8</v>
       </c>
-      <c r="CF9">
+      <c r="CG9">
         <v>9</v>
       </c>
-      <c r="CG9">
+      <c r="CH9">
         <v>10</v>
       </c>
-      <c r="CH9">
+      <c r="CI9">
         <v>11</v>
       </c>
-      <c r="CI9">
+      <c r="CJ9">
         <v>12</v>
       </c>
-      <c r="CJ9">
+      <c r="CK9">
         <v>13</v>
       </c>
-      <c r="CK9">
+      <c r="CL9">
         <v>14</v>
       </c>
-      <c r="CL9">
+      <c r="CM9">
         <v>15</v>
       </c>
-      <c r="CM9">
-        <v>16</v>
-      </c>
       <c r="CP9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CR9">
+        <v>2</v>
+      </c>
+      <c r="CS9">
         <v>3</v>
       </c>
-      <c r="CS9">
+      <c r="CT9">
         <v>4</v>
       </c>
-      <c r="CT9">
-        <v>5</v>
-      </c>
       <c r="CU9">
+        <v>5</v>
+      </c>
+      <c r="CV9">
         <v>6</v>
       </c>
-      <c r="CV9">
+      <c r="CW9">
         <v>7</v>
       </c>
-      <c r="CW9">
+      <c r="CX9">
         <v>8</v>
       </c>
-      <c r="CX9">
+      <c r="CY9">
         <v>9</v>
       </c>
-      <c r="CY9">
+      <c r="CZ9">
         <v>10</v>
       </c>
-      <c r="CZ9">
+      <c r="DA9">
         <v>11</v>
       </c>
-      <c r="DA9">
+      <c r="DB9">
         <v>12</v>
       </c>
-      <c r="DB9">
+      <c r="DC9">
         <v>13</v>
       </c>
-      <c r="DC9">
+      <c r="DD9">
         <v>14</v>
       </c>
-      <c r="DD9">
+      <c r="DE9">
         <v>15</v>
-      </c>
-      <c r="DE9">
-        <v>16</v>
       </c>
       <c r="DH9">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="10" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>14</v>
       </c>
       <c r="U10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>14</v>
       </c>
       <c r="BE10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="1" t="s">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="BW10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1" t="s">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="CO10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP10" s="1" t="s">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>14</v>
       </c>
       <c r="DG10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH10" s="1" t="s">
         <v>0</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="11" spans="1:127" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>15</v>
@@ -1600,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="U11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11" s="9" t="s">
         <v>17</v>
@@ -1642,7 +1642,7 @@
       <c r="BB11" s="10"/>
       <c r="BC11" s="11"/>
       <c r="BE11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="9" t="s">
         <v>23</v>
@@ -1663,7 +1663,7 @@
       <c r="BT11" s="10"/>
       <c r="BU11" s="11"/>
       <c r="BW11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BX11" s="9" t="s">
         <v>24</v>
@@ -1684,7 +1684,7 @@
       <c r="CL11" s="10"/>
       <c r="CM11" s="11"/>
       <c r="CO11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP11" s="9" t="s">
         <v>25</v>
@@ -1705,7 +1705,7 @@
       <c r="DD11" s="10"/>
       <c r="DE11" s="11"/>
       <c r="DG11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DH11" s="9" t="s">
         <v>30</v>
